--- a/OCR/DBSCAN.xlsx
+++ b/OCR/DBSCAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\japanese-handwriting-analysis\OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C69D374-29C2-4E45-A4A0-9E90978F8ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8FE8AC-7D9C-4FB3-9FAC-F619D031CE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/OCR/DBSCAN.xlsx
+++ b/OCR/DBSCAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\japanese-handwriting-analysis\OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8FE8AC-7D9C-4FB3-9FAC-F619D031CE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BE776D-D292-4084-B804-997F53A7338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>character</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,145 +96,79 @@
     <t>人</t>
   </si>
   <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>見</t>
-  </si>
-  <si>
     <t>本</t>
   </si>
   <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>文</t>
+  </si>
+  <si>
+    <t>明</t>
+  </si>
+  <si>
+    <t>情</t>
+  </si>
+  <si>
+    <t>国</t>
+  </si>
+  <si>
+    <t>用</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>へ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR prob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature extraction prob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data lacking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not using</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>子</t>
-  </si>
-  <si>
-    <t>出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>年</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>言</t>
-  </si>
-  <si>
-    <t>学</t>
-  </si>
-  <si>
-    <t>分</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>記</t>
-  </si>
-  <si>
-    <t>会</t>
-  </si>
-  <si>
-    <t>新</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>時</t>
-  </si>
-  <si>
-    <t>行</t>
-  </si>
-  <si>
-    <t>立</t>
-  </si>
-  <si>
-    <t>気</t>
-  </si>
-  <si>
-    <t>報</t>
-  </si>
-  <si>
-    <t>思</t>
-  </si>
-  <si>
-    <t>上</t>
-  </si>
-  <si>
-    <t>語</t>
-  </si>
-  <si>
-    <t>自</t>
-  </si>
-  <si>
-    <t>者</t>
-  </si>
-  <si>
-    <t>生</t>
-  </si>
-  <si>
-    <t>文</t>
-  </si>
-  <si>
-    <t>明</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
-    <t>国</t>
-  </si>
-  <si>
-    <t>朝</t>
-  </si>
-  <si>
-    <t>用</t>
-  </si>
-  <si>
-    <t>書</t>
-  </si>
-  <si>
-    <t>私</t>
-  </si>
-  <si>
-    <t>手</t>
-  </si>
-  <si>
-    <t>間</t>
-  </si>
-  <si>
-    <t>小</t>
-  </si>
-  <si>
-    <t>合</t>
-  </si>
-  <si>
-    <t>へ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OCR prob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feature extraction prob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data lacking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not using</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,18 +192,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -284,9 +212,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -567,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -592,22 +519,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -643,7 +570,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>1.2</v>
@@ -844,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -858,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -875,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -892,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -909,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -926,220 +853,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B22">
+        <v>1.5</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>1.5</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/OCR/DBSCAN.xlsx
+++ b/OCR/DBSCAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\japanese-handwriting-analysis\OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BE776D-D292-4084-B804-997F53A7338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2DF2DA-B295-44F2-8F3F-692E9D27CCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -556,10 +556,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -649,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -694,13 +694,16 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>5</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
